--- a/biology/Histoire de la zoologie et de la botanique/Sidnie_Manton/Sidnie_Manton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sidnie_Manton/Sidnie_Manton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sidnie Milana Manton, née le 4 mai 1902 à Londres et morte le 2 janvier 1979 dans la même ville, est une entomologiste britannique.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sidnie Manton fait ses études secondaires à l'école Froebel de Kensington, puis à St Paul's Girls' School (1917-1921). Elle s'inscrit au Girton College de Cambridge puis passe une année à l'Imperial College à Londres. Elle enseigne la zoologie au King's College de Londres (1949-1960). Elle est élue à la Royal Society en 1948[2].
-Elle est la sœur de la botaniste Irene Manton, elles sont membres en même temps de la Royal Society[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sidnie Manton fait ses études secondaires à l'école Froebel de Kensington, puis à St Paul's Girls' School (1917-1921). Elle s'inscrit au Girton College de Cambridge puis passe une année à l'Imperial College à Londres. Elle enseigne la zoologie au King's College de Londres (1949-1960). Elle est élue à la Royal Society en 1948.
+Elle est la sœur de la botaniste Irene Manton, elles sont membres en même temps de la Royal Society.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1948 : membre de la Royal Society
 1963 : médaille d'or de zoologie de la Linnean Society of London
 1977 : médaille Frink de la Zoological Society of London
 Docteur honoris causa de l'université de Lund (Suède)
-Le cratère Manton est nommé en son honneur[2],[3].</t>
+Le cratère Manton est nommé en son honneur,.</t>
         </is>
       </c>
     </row>
